--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="731" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="731" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="485">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1472,6 +1472,18 @@
   </si>
   <si>
     <t>ODE</t>
+  </si>
+  <si>
+    <t>受阻落体</t>
+  </si>
+  <si>
+    <t>RFall</t>
+  </si>
+  <si>
+    <t>一阶齐次微分方程</t>
+  </si>
+  <si>
+    <t>ODE1</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1973,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2473,6 +2485,14 @@
       </c>
       <c r="D22" t="s">
         <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" t="s">
+        <v>483</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2623,7 +2643,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -2860,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3027,12 +3047,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>365</v>
+    <row r="11" spans="1:9" ht="14.25">
+      <c r="A11" s="11" t="s">
+        <v>481</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>482</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>440</v>
@@ -3043,10 +3063,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>430</v>
+        <v>365</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>344</v>
@@ -3057,10 +3077,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>347</v>
+        <v>430</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>348</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>36</v>
@@ -3071,10 +3091,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>342</v>
@@ -3085,10 +3105,10 @@
     </row>
     <row r="15" spans="1:9" ht="14.25">
       <c r="A15" s="2" t="s">
-        <v>442</v>
+        <v>346</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>443</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s">
         <v>320</v>
@@ -3097,20 +3117,20 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="A17" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>177</v>
@@ -3121,18 +3141,18 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>57</v>
@@ -3142,97 +3162,105 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>136</v>
+      <c r="A20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>135</v>
+        <v>436</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>438</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="4"/>
-    </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" ht="14.25">
+      <c r="A28" t="s">
         <v>416</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.25">
-      <c r="A49"/>
-      <c r="B49"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>222</v>
-      </c>
+    <row r="50" spans="1:2" ht="14.25">
+      <c r="A50"/>
+      <c r="B50"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3500,7 +3528,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="731" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -25,11 +25,12 @@
     <definedName name="_Toc442300232" localSheetId="7">统计力学!$A$9</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="480">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -91,24 +92,9 @@
     <t>一维齐次亥姆霍兹方程</t>
   </si>
   <si>
-    <t>Deter3</t>
-  </si>
-  <si>
-    <t>三阶行列式</t>
-  </si>
-  <si>
-    <t>Deter2</t>
-  </si>
-  <si>
-    <t>二阶行列式</t>
-  </si>
-  <si>
     <t>二项式定理</t>
   </si>
   <si>
-    <t>位置矢量</t>
-  </si>
-  <si>
     <t>体密度</t>
   </si>
   <si>
@@ -274,9 +260,6 @@
     <t>线性代数导航</t>
   </si>
   <si>
-    <t>Lin</t>
-  </si>
-  <si>
     <t>力学导航</t>
   </si>
   <si>
@@ -322,9 +305,6 @@
     <t>基本初等函数的导数</t>
   </si>
   <si>
-    <t>复变函数简介</t>
-  </si>
-  <si>
     <t>Cplx</t>
   </si>
   <si>
@@ -475,9 +455,6 @@
     <t>LSpace</t>
   </si>
   <si>
-    <t>线性变换简介</t>
-  </si>
-  <si>
     <t>LTrans</t>
   </si>
   <si>
@@ -499,15 +476,9 @@
     <t>IntL</t>
   </si>
   <si>
-    <t>连续叉乘化简</t>
-  </si>
-  <si>
     <t>TriCro</t>
   </si>
   <si>
-    <t>矢量的混合积</t>
-  </si>
-  <si>
     <t>TriVM</t>
   </si>
   <si>
@@ -535,15 +506,9 @@
     <t>Grad</t>
   </si>
   <si>
-    <t>SNCond</t>
-  </si>
-  <si>
     <t>BiNorR</t>
   </si>
   <si>
-    <t>数值计算导航</t>
-  </si>
-  <si>
     <t>NumPhy</t>
   </si>
   <si>
@@ -982,12 +947,6 @@
     <t>Lorenz</t>
   </si>
   <si>
-    <t>刚体运动</t>
-  </si>
-  <si>
-    <t>Rigid</t>
-  </si>
-  <si>
     <t>RBEM</t>
   </si>
   <si>
@@ -1000,9 +959,6 @@
     <t>RBSt</t>
   </si>
   <si>
-    <t>天体运动</t>
-  </si>
-  <si>
     <t>CelBd</t>
   </si>
   <si>
@@ -1072,9 +1028,6 @@
     <t>动量 动量定理（单个质点）</t>
   </si>
   <si>
-    <t>动能 动能定理</t>
-  </si>
-  <si>
     <t>KELaw1</t>
   </si>
   <si>
@@ -1156,9 +1109,6 @@
     <t>雅可比行列式</t>
   </si>
   <si>
-    <t>多元函数的全导数</t>
-  </si>
-  <si>
     <t>TotDer</t>
   </si>
   <si>
@@ -1249,9 +1199,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>超纲数学</t>
-  </si>
-  <si>
     <t>拉格朗日电磁势</t>
   </si>
   <si>
@@ -1336,9 +1283,6 @@
     <t>万有引力与天体运动</t>
   </si>
   <si>
-    <t>分析力学</t>
-  </si>
-  <si>
     <t>受阻简谐振子</t>
   </si>
   <si>
@@ -1357,9 +1301,6 @@
     <t>刚体的绕轴转动</t>
   </si>
   <si>
-    <t>势能</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -1393,9 +1334,6 @@
     <t>IntV</t>
   </si>
   <si>
-    <t>多元微积分导航</t>
-  </si>
-  <si>
     <t>复合函数的偏导 链式法则</t>
   </si>
   <si>
@@ -1480,10 +1418,58 @@
     <t>RFall</t>
   </si>
   <si>
-    <t>一阶齐次微分方程</t>
-  </si>
-  <si>
     <t>ODE1</t>
+  </si>
+  <si>
+    <t>行列式</t>
+  </si>
+  <si>
+    <t>Deter</t>
+  </si>
+  <si>
+    <t>动能 动能定理（单个质点）</t>
+  </si>
+  <si>
+    <t>Matlab</t>
+  </si>
+  <si>
+    <t>Matlab编程基础</t>
+  </si>
+  <si>
+    <t>TwoCld</t>
+  </si>
+  <si>
+    <t>二体碰撞</t>
+  </si>
+  <si>
+    <t>复变函数</t>
+  </si>
+  <si>
+    <t>一阶线性微分方程</t>
+  </si>
+  <si>
+    <t>全导数</t>
+  </si>
+  <si>
+    <t>连续叉乘的化简</t>
+  </si>
+  <si>
+    <t>三矢量的混合积</t>
+  </si>
+  <si>
+    <t>线性变换</t>
+  </si>
+  <si>
+    <t>计算物理导航</t>
+  </si>
+  <si>
+    <t>位置矢量 位移</t>
+  </si>
+  <si>
+    <t>力场 势能</t>
+  </si>
+  <si>
+    <t>开普勒问题</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1623,15 +1609,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1972,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1988,592 +1987,542 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>406</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>170</v>
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" t="s">
+        <v>467</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>171</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>477</v>
+        <v>457</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>456</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>286</v>
+        <v>472</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>472</v>
+        <v>359</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>99</v>
+        <v>277</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>288</v>
+        <v>434</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>475</v>
+        <v>278</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>290</v>
+        <v>445</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>445</v>
+        <v>144</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>156</v>
+        <v>473</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>158</v>
+        <v>474</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>154</v>
+        <v>431</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>111</v>
+        <v>312</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>475</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>160</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>463</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>464</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>464</v>
+        <v>151</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>453</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>165</v>
+        <v>392</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="C16" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
+        <v>134</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D22" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" t="s">
-        <v>483</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
@@ -2601,10 +2550,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2627,10 +2576,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2592,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -2687,7 +2636,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -2738,50 +2687,50 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2792,18 +2741,18 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2811,42 +2760,42 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2867,10 +2816,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2880,10 +2829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -2900,368 +2849,395 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="8" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>435</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>83</v>
+      <c r="A2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>51</v>
+      <c r="G4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>339</v>
+        <v>74</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>341</v>
+        <v>324</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>439</v>
+        <v>325</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25">
+        <v>326</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
-      <c r="A10" s="11" t="s">
-        <v>463</v>
+      <c r="A10" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>322</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
-      <c r="A11" s="11" t="s">
-        <v>481</v>
+      <c r="A11" s="10" t="s">
+        <v>460</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>344</v>
+        <v>421</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>347</v>
+        <v>465</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>342</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C15" t="s">
-        <v>320</v>
+        <v>330</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>442</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25">
+      <c r="A16" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>443</v>
+        <v>423</v>
+      </c>
+      <c r="C16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="11" t="s">
-        <v>462</v>
+      <c r="A17" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>438</v>
+      <c r="A22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="4"/>
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25">
+      <c r="A27" t="s">
+        <v>398</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.25">
-      <c r="A28" t="s">
-        <v>416</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.25">
-      <c r="A50"/>
-      <c r="B50"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>324</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.25">
+      <c r="A48"/>
+      <c r="B48"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3273,10 +3249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A5:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -3285,84 +3261,36 @@
     <col min="2" max="16384" width="8.9296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
-      <c r="A3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>211</v>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" t="s">
+        <v>365</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25">
-      <c r="A6" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B6" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>354</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>355</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3386,10 +3314,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3399,10 +3327,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -3413,26 +3341,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>460</v>
+        <v>438</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3445,50 +3373,98 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3515,7 +3491,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3540,154 +3516,154 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3712,98 +3688,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3817,7 +3793,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3827,250 +3803,250 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B14" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B28" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="B29" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B30" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="B31" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -170,9 +170,6 @@
     <t>Fwork</t>
   </si>
   <si>
-    <t>Rotate</t>
-  </si>
-  <si>
     <t>CMVG</t>
   </si>
   <si>
@@ -1244,9 +1241,6 @@
     <t>量子力学中的变分法</t>
   </si>
   <si>
-    <t>球坐标简谐振子</t>
-  </si>
-  <si>
     <t>SHOSph</t>
   </si>
   <si>
@@ -1298,9 +1292,6 @@
     <t>角动量</t>
   </si>
   <si>
-    <t>刚体的绕轴转动</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -1470,6 +1461,15 @@
   </si>
   <si>
     <t>开普勒问题</t>
+  </si>
+  <si>
+    <t>质点系</t>
+  </si>
+  <si>
+    <t>PSys</t>
+  </si>
+  <si>
+    <t>三维简谐振子（球坐标）</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +1972,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1987,19 +1987,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2008,63 +2008,63 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="I2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2075,361 +2075,361 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="C16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -2442,82 +2442,82 @@
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D22" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2550,10 +2550,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" t="s">
         <v>380</v>
-      </c>
-      <c r="B1" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2576,10 +2576,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
         <v>195</v>
-      </c>
-      <c r="B1" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -2714,7 +2714,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2727,7 +2727,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2784,18 +2784,18 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2816,10 +2816,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" t="s">
         <v>310</v>
-      </c>
-      <c r="B1" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2829,10 +2829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -2844,196 +2844,204 @@
     <col min="5" max="5" width="18.19921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" style="2"/>
     <col min="7" max="7" width="20.53125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="2"/>
+    <col min="8" max="8" width="9.1328125" style="2"/>
+    <col min="9" max="9" width="13.73046875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
+    <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>416</v>
-      </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25">
+      <c r="A6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25">
-      <c r="A4" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25">
-      <c r="A9" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>320</v>
+      <c r="C9" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25">
+    </row>
+    <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -3042,118 +3050,118 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25">
+    <row r="11" spans="1:10" ht="14.25">
       <c r="A11" s="10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25">
+    </row>
+    <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3161,84 +3169,76 @@
         <v>35</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25">
       <c r="A27" t="s">
+        <v>397</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25">
       <c r="A48"/>
       <c r="B48"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>210</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3263,34 +3263,34 @@
   <sheetData>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3317,7 +3317,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3330,7 +3330,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -3341,26 +3341,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3373,98 +3373,98 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3491,7 +3491,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3516,154 +3516,154 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" t="s">
         <v>366</v>
-      </c>
-      <c r="B17" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +3677,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -3688,98 +3688,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3792,8 +3792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3803,98 +3803,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
-      </c>
-      <c r="B1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
         <v>370</v>
-      </c>
-      <c r="B3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>479</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
         <v>207</v>
-      </c>
-      <c r="B8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
         <v>238</v>
-      </c>
-      <c r="B10" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" t="s">
         <v>342</v>
-      </c>
-      <c r="B11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" t="s">
         <v>340</v>
-      </c>
-      <c r="B12" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3902,151 +3902,151 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" t="s">
         <v>244</v>
-      </c>
-      <c r="B17" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" t="s">
         <v>246</v>
-      </c>
-      <c r="B18" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" t="s">
         <v>248</v>
-      </c>
-      <c r="B19" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" t="s">
         <v>250</v>
-      </c>
-      <c r="B20" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" t="s">
         <v>254</v>
-      </c>
-      <c r="B22" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" t="s">
         <v>281</v>
-      </c>
-      <c r="B26" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" t="s">
         <v>279</v>
-      </c>
-      <c r="B27" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="482">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1470,6 +1470,12 @@
   </si>
   <si>
     <t>三维简谐振子（球坐标）</t>
+  </si>
+  <si>
+    <t>PolA</t>
+  </si>
+  <si>
+    <t>极坐标中的速度和加速度</t>
   </si>
 </sst>
 </file>
@@ -1971,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2829,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3051,11 +3057,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
-      <c r="A11" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>458</v>
+      <c r="A11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11" t="s">
+        <v>480</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>306</v>
@@ -3064,12 +3070,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>348</v>
+    <row r="12" spans="1:10" ht="14.25">
+      <c r="A12" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>458</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>419</v>
@@ -3080,10 +3086,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>328</v>
@@ -3094,10 +3100,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
@@ -3108,10 +3114,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>330</v>
+        <v>462</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>326</v>
@@ -3121,11 +3127,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25">
-      <c r="A16" s="4" t="s">
-        <v>475</v>
+      <c r="A16" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>420</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
         <v>305</v>
@@ -3134,12 +3140,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="10" t="s">
-        <v>438</v>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>164</v>
@@ -3148,97 +3154,105 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>408</v>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>416</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" ht="14.25">
+      <c r="A28" t="s">
         <v>397</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="15" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25">
-      <c r="A48"/>
-      <c r="B48"/>
+    <row r="49" spans="1:2" ht="14.25">
+      <c r="A49"/>
+      <c r="B49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3792,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="487">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -491,9 +491,6 @@
     <t>Dpol</t>
   </si>
   <si>
-    <t>DPol1</t>
-  </si>
-  <si>
     <t>方向导数</t>
   </si>
   <si>
@@ -1295,9 +1292,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>正交归一基</t>
-  </si>
-  <si>
     <t>矢量的导数 求导法则</t>
   </si>
   <si>
@@ -1476,6 +1470,27 @@
   </si>
   <si>
     <t>极坐标中的速度和加速度</t>
+  </si>
+  <si>
+    <t>SufCnd</t>
+  </si>
+  <si>
+    <t>右手定则</t>
+  </si>
+  <si>
+    <t>RHRul</t>
+  </si>
+  <si>
+    <t>单位正交阵</t>
+  </si>
+  <si>
+    <t>UOrM</t>
+  </si>
+  <si>
+    <t>Dpol1</t>
+  </si>
+  <si>
+    <t>回收站</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1993,19 +2008,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2026,27 +2041,27 @@
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="I2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>63</v>
@@ -2055,22 +2070,22 @@
         <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2078,10 +2093,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>480</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
@@ -2093,30 +2108,30 @@
         <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>141</v>
@@ -2125,13 +2140,13 @@
         <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>91</v>
@@ -2139,7 +2154,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>94</v>
@@ -2157,21 +2172,21 @@
         <v>71</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>109</v>
@@ -2183,13 +2198,13 @@
         <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
+        <v>481</v>
+      </c>
+      <c r="F7" t="s">
+        <v>482</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>149</v>
@@ -2197,7 +2212,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>108</v>
@@ -2209,10 +2224,10 @@
         <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>143</v>
@@ -2236,10 +2251,10 @@
         <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>470</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>145</v>
@@ -2262,13 +2277,13 @@
         <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>149</v>
@@ -2276,36 +2291,36 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>54</v>
@@ -2314,21 +2329,21 @@
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>461</v>
+        <v>140</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>150</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>153</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>90</v>
@@ -2340,39 +2355,39 @@
         <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>142</v>
+        <v>459</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>155</v>
@@ -2380,28 +2395,28 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2415,16 +2430,10 @@
         <v>159</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="C17" s="2" t="s">
         <v>113</v>
       </c>
@@ -2432,29 +2441,41 @@
         <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>134</v>
+        <v>483</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="3:6">
+      <c r="E18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="3:6">
+      <c r="E19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="C20" s="2" t="s">
         <v>92</v>
       </c>
@@ -2462,31 +2483,31 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="1:6">
       <c r="C21" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
+    </row>
+    <row r="22" spans="1:6">
       <c r="C22" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D22" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="C23" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="C24" s="3" t="s">
         <v>79</v>
       </c>
@@ -2494,7 +2515,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="1:6">
       <c r="C25" s="3" t="s">
         <v>80</v>
       </c>
@@ -2502,7 +2523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="1:6">
       <c r="C26" s="2" t="s">
         <v>129</v>
       </c>
@@ -2510,25 +2531,38 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="1:6">
       <c r="C27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
-      <c r="C28" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
@@ -2556,10 +2590,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" t="s">
         <v>379</v>
-      </c>
-      <c r="B1" t="s">
-        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -2582,10 +2616,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
         <v>194</v>
-      </c>
-      <c r="B1" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2676,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -2747,7 +2781,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>85</v>
@@ -2790,18 +2824,18 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2822,10 +2856,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" t="s">
         <v>309</v>
-      </c>
-      <c r="B1" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2837,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -2857,16 +2891,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -2878,10 +2912,10 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>116</v>
@@ -2890,70 +2924,70 @@
         <v>117</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" t="s">
         <v>335</v>
-      </c>
-      <c r="H3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>319</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>51</v>
@@ -2964,90 +2998,90 @@
     </row>
     <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="G8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -3058,49 +3092,49 @@
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25">
       <c r="A12" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
@@ -3109,65 +3143,65 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3188,7 +3222,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>128</v>
@@ -3199,12 +3233,12 @@
         <v>127</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>91</v>
@@ -3236,18 +3270,18 @@
     </row>
     <row r="28" spans="1:4" ht="14.25">
       <c r="A28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25">
@@ -3277,34 +3311,34 @@
   <sheetData>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3331,7 +3365,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3355,26 +3389,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3387,58 +3421,58 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3451,18 +3485,18 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3505,7 +3539,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3530,154 +3564,154 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" t="s">
         <v>365</v>
-      </c>
-      <c r="B17" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3702,98 +3736,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3817,98 +3851,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
-      </c>
-      <c r="B1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" t="s">
         <v>369</v>
-      </c>
-      <c r="B3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
         <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" t="s">
         <v>237</v>
-      </c>
-      <c r="B10" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
         <v>341</v>
-      </c>
-      <c r="B11" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" t="s">
         <v>339</v>
-      </c>
-      <c r="B12" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3916,151 +3950,151 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" t="s">
         <v>243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" t="s">
         <v>245</v>
-      </c>
-      <c r="B18" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" t="s">
         <v>247</v>
-      </c>
-      <c r="B19" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" t="s">
         <v>249</v>
-      </c>
-      <c r="B20" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" t="s">
         <v>253</v>
-      </c>
-      <c r="B22" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" t="s">
         <v>280</v>
-      </c>
-      <c r="B26" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" t="s">
         <v>278</v>
-      </c>
-      <c r="B27" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>403</v>
+      </c>
+      <c r="B31" t="s">
         <v>404</v>
-      </c>
-      <c r="B31" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="489">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1280,9 +1280,6 @@
     <t>简谐振子受迫运动（数值计算）</t>
   </si>
   <si>
-    <t>SHOF</t>
-  </si>
-  <si>
     <t>质点系的动能 柯尼西定理</t>
   </si>
   <si>
@@ -1491,6 +1488,15 @@
   </si>
   <si>
     <t>回收站</t>
+  </si>
+  <si>
+    <t>SHOfF</t>
+  </si>
+  <si>
+    <t>振动的指数形式</t>
+  </si>
+  <si>
+    <t>VbExp</t>
   </si>
 </sst>
 </file>
@@ -1642,9 +1648,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1652,6 +1655,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1992,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2050,18 +2056,18 @@
         <v>273</v>
       </c>
       <c r="I2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>63</v>
@@ -2070,19 +2076,19 @@
         <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>357</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>157</v>
@@ -2093,7 +2099,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>380</v>
@@ -2114,10 +2120,10 @@
         <v>275</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2140,13 +2146,13 @@
         <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>276</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>91</v>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>94</v>
@@ -2172,21 +2178,21 @@
         <v>71</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>440</v>
-      </c>
       <c r="I6" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>109</v>
@@ -2198,13 +2204,13 @@
         <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7" t="s">
         <v>481</v>
       </c>
-      <c r="F7" t="s">
-        <v>482</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>149</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>108</v>
@@ -2277,13 +2283,13 @@
         <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>149</v>
@@ -2291,7 +2297,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
         <v>310</v>
@@ -2303,21 +2309,21 @@
         <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>148</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>333</v>
@@ -2329,7 +2335,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>140</v>
@@ -2338,12 +2344,12 @@
         <v>150</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>90</v>
@@ -2355,10 +2361,10 @@
         <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>153</v>
@@ -2375,7 +2381,7 @@
         <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>112</v>
@@ -2441,10 +2447,10 @@
         <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2493,18 +2499,18 @@
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D22" t="s">
         <v>453</v>
-      </c>
-      <c r="D22" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2549,7 +2555,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2871,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -2912,19 +2918,19 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>116</v>
+      <c r="E2" s="11" t="s">
+        <v>487</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>488</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>307</v>
@@ -2938,7 +2944,7 @@
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>66</v>
@@ -2949,6 +2955,12 @@
       <c r="D3" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>334</v>
       </c>
@@ -2958,15 +2970,15 @@
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>318</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2978,16 +2990,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>51</v>
@@ -3004,10 +3016,10 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D6" s="17" t="s">
         <v>463</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>462</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>186</v>
@@ -3064,7 +3076,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>125</v>
@@ -3078,10 +3090,10 @@
     </row>
     <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -3092,10 +3104,10 @@
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>305</v>
@@ -3106,13 +3118,13 @@
     </row>
     <row r="12" spans="1:10" ht="14.25">
       <c r="A12" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>257</v>
@@ -3148,7 +3160,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>330</v>
@@ -3176,10 +3188,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>163</v>
@@ -3190,10 +3202,10 @@
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3229,11 +3241,11 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>416</v>
+      <c r="B23" s="17" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3277,10 +3289,10 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3378,7 +3390,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -3397,10 +3409,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>433</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3899,7 +3911,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s">
         <v>402</v>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="495">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -179,9 +179,6 @@
     <t>LimArc</t>
   </si>
   <si>
-    <t>牛顿-莱布尼兹公式</t>
-  </si>
-  <si>
     <t>NLeib</t>
   </si>
   <si>
@@ -1497,6 +1494,27 @@
   </si>
   <si>
     <t>VbExp</t>
+  </si>
+  <si>
+    <t>开普勒三定律</t>
+  </si>
+  <si>
+    <t>Keple</t>
+  </si>
+  <si>
+    <t>牛顿—莱布尼兹公式</t>
+  </si>
+  <si>
+    <t>常微分方程（组）的数值解</t>
+  </si>
+  <si>
+    <t>OdeNum</t>
+  </si>
+  <si>
+    <t>中点法解常微分方程（组）</t>
+  </si>
+  <si>
+    <t>OdeMid</t>
   </si>
 </sst>
 </file>
@@ -1998,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2014,19 +2032,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2035,63 +2053,63 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="I2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2099,358 +2117,375 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="I6" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" t="s">
         <v>480</v>
       </c>
-      <c r="F7" t="s">
-        <v>481</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="1"/>
+      <c r="I8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>146</v>
+      <c r="I9" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="G13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="C16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2461,109 +2496,109 @@
         <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="C21" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D22" t="s">
         <v>452</v>
-      </c>
-      <c r="D22" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="C28" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2596,10 +2631,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" t="s">
         <v>378</v>
-      </c>
-      <c r="B1" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -2622,10 +2657,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
         <v>193</v>
-      </c>
-      <c r="B1" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2637,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -2682,7 +2717,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -2760,7 +2795,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2773,7 +2808,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
@@ -2787,10 +2822,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2830,18 +2865,18 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2862,10 +2897,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" t="s">
         <v>308</v>
-      </c>
-      <c r="B1" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2875,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -2897,203 +2932,209 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>76</v>
-      </c>
       <c r="C2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="E2" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>318</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>485</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" t="s">
         <v>334</v>
-      </c>
-      <c r="H3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="C4" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>318</v>
+      <c r="E4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="G5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>187</v>
+        <v>461</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -3101,52 +3142,58 @@
       <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25">
       <c r="A12" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
@@ -3155,73 +3202,73 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3234,71 +3281,55 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>91</v>
+        <v>118</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
         <v>121</v>
       </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25">
+      <c r="A27" t="s">
+        <v>395</v>
+      </c>
       <c r="B27" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.25">
-      <c r="A28" t="s">
         <v>396</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B29" s="14" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="14" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.25">
-      <c r="A49"/>
-      <c r="B49"/>
+      <c r="B28" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.25">
+      <c r="A48"/>
+      <c r="B48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3323,34 +3354,34 @@
   <sheetData>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -3377,7 +3408,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3401,26 +3432,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3433,98 +3464,98 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3551,7 +3582,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3576,154 +3607,154 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" t="s">
         <v>364</v>
-      </c>
-      <c r="B17" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3748,98 +3779,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3863,98 +3894,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
         <v>173</v>
-      </c>
-      <c r="B1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" t="s">
         <v>368</v>
-      </c>
-      <c r="B3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
         <v>205</v>
-      </c>
-      <c r="B8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" t="s">
         <v>236</v>
-      </c>
-      <c r="B10" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" t="s">
         <v>340</v>
-      </c>
-      <c r="B11" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" t="s">
         <v>338</v>
-      </c>
-      <c r="B12" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3962,151 +3993,151 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" t="s">
         <v>242</v>
-      </c>
-      <c r="B17" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" t="s">
         <v>244</v>
-      </c>
-      <c r="B18" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" t="s">
         <v>246</v>
-      </c>
-      <c r="B19" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" t="s">
         <v>248</v>
-      </c>
-      <c r="B20" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" t="s">
         <v>252</v>
-      </c>
-      <c r="B22" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" t="s">
         <v>279</v>
-      </c>
-      <c r="B26" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" t="s">
         <v>277</v>
-      </c>
-      <c r="B27" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" t="s">
         <v>403</v>
-      </c>
-      <c r="B31" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="505">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1412,9 +1412,6 @@
     <t>Matlab</t>
   </si>
   <si>
-    <t>Matlab编程基础</t>
-  </si>
-  <si>
     <t>TwoCld</t>
   </si>
   <si>
@@ -1515,6 +1512,39 @@
   </si>
   <si>
     <t>OdeMid</t>
+  </si>
+  <si>
+    <t>四阶龙格库塔法</t>
+  </si>
+  <si>
+    <t>OdeRK4</t>
+  </si>
+  <si>
+    <t>Matlab 的变量与矩阵</t>
+  </si>
+  <si>
+    <t>MatVar</t>
+  </si>
+  <si>
+    <t>Matlab 简介</t>
+  </si>
+  <si>
+    <t>Matlab 的文件， 程序结构和函数</t>
+  </si>
+  <si>
+    <t>MatSrt</t>
+  </si>
+  <si>
+    <t>Matlab 的程序调试及其他功能</t>
+  </si>
+  <si>
+    <t>MatOtr</t>
+  </si>
+  <si>
+    <t>Matlab 画图</t>
+  </si>
+  <si>
+    <t>MatPlt</t>
   </si>
 </sst>
 </file>
@@ -2017,7 +2047,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2074,7 +2104,7 @@
         <v>272</v>
       </c>
       <c r="I2" t="s">
-        <v>460</v>
+        <v>498</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>459</v>
@@ -2100,16 +2130,16 @@
         <v>439</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>356</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>156</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2117,7 +2147,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>379</v>
@@ -2137,11 +2167,11 @@
       <c r="H4" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>444</v>
+      <c r="I4" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2169,11 +2199,11 @@
       <c r="H5" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>90</v>
+      <c r="I5" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2202,10 +2232,10 @@
         <v>438</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2222,10 +2252,10 @@
         <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F7" t="s">
         <v>479</v>
-      </c>
-      <c r="F7" t="s">
-        <v>480</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>418</v>
@@ -2233,11 +2263,11 @@
       <c r="H7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>90</v>
+      <c r="I7" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2265,11 +2295,11 @@
       <c r="H8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I8" t="s">
-        <v>491</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>492</v>
+      <c r="I8" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2297,11 +2327,11 @@
       <c r="H9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>494</v>
+      <c r="I9" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2318,7 +2348,7 @@
         <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>146</v>
@@ -2328,6 +2358,12 @@
       </c>
       <c r="H10" s="1" t="s">
         <v>148</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2344,7 +2380,7 @@
         <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>147</v>
@@ -2354,6 +2390,12 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>426</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2370,7 +2412,7 @@
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>139</v>
@@ -2379,12 +2421,18 @@
         <v>149</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
+      </c>
+      <c r="I12" t="s">
+        <v>490</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>89</v>
@@ -2406,6 +2454,12 @@
       </c>
       <c r="H13" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2433,6 +2487,12 @@
       <c r="H14" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="I14" t="s">
+        <v>494</v>
+      </c>
+      <c r="J14" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
@@ -2482,10 +2542,10 @@
         <v>113</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2504,7 +2564,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>49</v>
@@ -2542,7 +2602,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="C23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>455</v>
@@ -2590,7 +2650,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2953,19 +3013,19 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="E2" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>487</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>306</v>
@@ -2979,7 +3039,7 @@
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
@@ -2994,7 +3054,7 @@
         <v>126</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>333</v>
@@ -3057,16 +3117,16 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>488</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3151,10 +3211,10 @@
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>304</v>
@@ -3235,7 +3295,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>417</v>
@@ -3942,7 +4002,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B7" t="s">
         <v>401</v>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="513">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1529,12 +1529,6 @@
     <t>Matlab 简介</t>
   </si>
   <si>
-    <t>Matlab 的文件， 程序结构和函数</t>
-  </si>
-  <si>
-    <t>MatSrt</t>
-  </si>
-  <si>
     <t>Matlab 的程序调试及其他功能</t>
   </si>
   <si>
@@ -1545,6 +1539,36 @@
   </si>
   <si>
     <t>MatPlt</t>
+  </si>
+  <si>
+    <t>二分法</t>
+  </si>
+  <si>
+    <t>Bisec</t>
+  </si>
+  <si>
+    <t>冒泡法</t>
+  </si>
+  <si>
+    <t>Bubble</t>
+  </si>
+  <si>
+    <t>多区间二分法</t>
+  </si>
+  <si>
+    <t>MBisec</t>
+  </si>
+  <si>
+    <t>MIfFor</t>
+  </si>
+  <si>
+    <t>Matlab 的函数</t>
+  </si>
+  <si>
+    <t>MatFun</t>
+  </si>
+  <si>
+    <t>Matlab 的判断与循环</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2071,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2168,10 +2192,10 @@
         <v>274</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2200,10 +2224,10 @@
         <v>275</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2264,10 +2288,10 @@
         <v>148</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>156</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2295,11 +2319,11 @@
       <c r="H8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>444</v>
+      <c r="I8" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2328,10 +2352,10 @@
         <v>145</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>90</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2359,11 +2383,11 @@
       <c r="H10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>447</v>
+      <c r="I10" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2391,11 +2415,11 @@
       <c r="H11" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>90</v>
+      <c r="I11" t="s">
+        <v>507</v>
+      </c>
+      <c r="J11" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2423,11 +2447,11 @@
       <c r="H12" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I12" t="s">
-        <v>490</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>491</v>
+      <c r="I12" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2455,11 +2479,11 @@
       <c r="H13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>493</v>
+      <c r="I13" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2487,11 +2511,11 @@
       <c r="H14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I14" t="s">
-        <v>494</v>
-      </c>
-      <c r="J14" t="s">
-        <v>495</v>
+      <c r="I14" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2519,6 +2543,12 @@
       <c r="H15" s="12" t="s">
         <v>390</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="C16" s="2" t="s">
@@ -2533,8 +2563,14 @@
       <c r="F16" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="I16" t="s">
+        <v>490</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="C17" s="2" t="s">
         <v>112</v>
       </c>
@@ -2547,8 +2583,14 @@
       <c r="F17" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="I17" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2561,8 +2603,14 @@
       <c r="F18" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="I18" t="s">
+        <v>494</v>
+      </c>
+      <c r="J18" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="C19" s="2" t="s">
         <v>489</v>
       </c>
@@ -2576,7 +2624,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:10">
       <c r="C20" s="2" t="s">
         <v>91</v>
       </c>
@@ -2584,7 +2632,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:10">
       <c r="C21" s="2" t="s">
         <v>330</v>
       </c>
@@ -2592,7 +2640,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:10">
       <c r="C22" s="2" t="s">
         <v>451</v>
       </c>
@@ -2600,7 +2648,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:10">
       <c r="C23" t="s">
         <v>463</v>
       </c>
@@ -2608,7 +2656,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:10">
       <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
@@ -2616,7 +2664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:10">
       <c r="C25" s="3" t="s">
         <v>79</v>
       </c>
@@ -2624,7 +2672,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:10">
       <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
@@ -2632,7 +2680,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:10">
       <c r="C27" s="2" t="s">
         <v>165</v>
       </c>
@@ -2640,7 +2688,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:10">
       <c r="C28" s="2" t="s">
         <v>166</v>
       </c>
@@ -2648,7 +2696,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>483</v>
       </c>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="515">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1569,6 +1569,12 @@
   </si>
   <si>
     <t>Matlab 的判断与循环</t>
+  </si>
+  <si>
+    <t>Fouclt</t>
+  </si>
+  <si>
+    <t>傅科摆角速度的一种几何推导</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3018,10 +3024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3395,49 +3401,57 @@
         <v>127</v>
       </c>
     </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25">
+      <c r="A26" t="s">
+        <v>395</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.25">
-      <c r="A27" t="s">
-        <v>395</v>
-      </c>
-      <c r="B27" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="14" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25">
-      <c r="A48"/>
-      <c r="B48"/>
+    <row r="28" spans="1:4" ht="14.25">
+      <c r="A28" t="s">
+        <v>514</v>
+      </c>
+      <c r="B28" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.25">
+      <c r="A47"/>
+      <c r="B47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -2076,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3026,7 +3026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -2076,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3026,7 +3026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="517">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1575,6 +1575,12 @@
   </si>
   <si>
     <t>傅科摆角速度的一种几何推导</t>
+  </si>
+  <si>
+    <t>Nelder-Mead 算法</t>
+  </si>
+  <si>
+    <t>NelMea</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2083,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2628,6 +2634,12 @@
       </c>
       <c r="F19" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="I19" t="s">
+        <v>515</v>
+      </c>
+      <c r="J19" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:10">

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1574,13 +1574,13 @@
     <t>Fouclt</t>
   </si>
   <si>
-    <t>傅科摆角速度的一种几何推导</t>
-  </si>
-  <si>
     <t>Nelder-Mead 算法</t>
   </si>
   <si>
     <t>NelMea</t>
+  </si>
+  <si>
+    <t>傅科摆</t>
   </si>
 </sst>
 </file>
@@ -2082,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2636,10 +2636,10 @@
         <v>134</v>
       </c>
       <c r="I19" t="s">
+        <v>514</v>
+      </c>
+      <c r="J19" t="s">
         <v>515</v>
-      </c>
-      <c r="J19" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3038,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3398,10 +3398,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="28" spans="1:4" ht="14.25">
       <c r="A28" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B28" t="s">
         <v>513</v>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1376,9 +1376,6 @@
     <t>KPNum0</t>
   </si>
   <si>
-    <t>弹簧振子受迫运动的简单数值计算</t>
-  </si>
-  <si>
     <t>TriEqv</t>
   </si>
   <si>
@@ -1581,6 +1578,9 @@
   </si>
   <si>
     <t>傅科摆</t>
+  </si>
+  <si>
+    <t>简谐振子受迫运动的简单数值计算</t>
   </si>
 </sst>
 </file>
@@ -2082,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2140,18 +2140,18 @@
         <v>272</v>
       </c>
       <c r="I2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -2166,16 +2166,16 @@
         <v>439</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>356</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2183,7 +2183,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>379</v>
@@ -2204,10 +2204,10 @@
         <v>274</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2236,10 +2236,10 @@
         <v>275</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2268,10 +2268,10 @@
         <v>438</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2288,10 +2288,10 @@
         <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F7" t="s">
         <v>478</v>
-      </c>
-      <c r="F7" t="s">
-        <v>479</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>418</v>
@@ -2300,10 +2300,10 @@
         <v>148</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2332,7 +2332,7 @@
         <v>143</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>156</v>
@@ -2384,7 +2384,7 @@
         <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>146</v>
@@ -2396,10 +2396,10 @@
         <v>148</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2416,7 +2416,7 @@
         <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>147</v>
@@ -2428,10 +2428,10 @@
         <v>426</v>
       </c>
       <c r="I11" t="s">
+        <v>506</v>
+      </c>
+      <c r="J11" t="s">
         <v>507</v>
-      </c>
-      <c r="J11" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2448,7 +2448,7 @@
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>139</v>
@@ -2457,18 +2457,18 @@
         <v>149</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I12" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>505</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>89</v>
@@ -2480,10 +2480,10 @@
         <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>152</v>
@@ -2491,11 +2491,11 @@
       <c r="H13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>90</v>
+      <c r="I13" t="s">
+        <v>513</v>
+      </c>
+      <c r="J13" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2523,11 +2523,11 @@
       <c r="H14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>447</v>
+      <c r="I14" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2555,11 +2555,11 @@
       <c r="H15" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>90</v>
+      <c r="I15" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2575,11 +2575,11 @@
       <c r="F16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I16" t="s">
-        <v>490</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>491</v>
+      <c r="I16" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2590,16 +2590,16 @@
         <v>113</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>492</v>
+      <c r="I17" t="s">
+        <v>489</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2615,16 +2615,16 @@
       <c r="F18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I18" t="s">
-        <v>494</v>
-      </c>
-      <c r="J18" t="s">
-        <v>495</v>
+      <c r="I18" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="C19" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>49</v>
@@ -2636,10 +2636,10 @@
         <v>134</v>
       </c>
       <c r="I19" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="J19" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2660,18 +2660,18 @@
     </row>
     <row r="22" spans="1:10">
       <c r="C22" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D22" t="s">
         <v>451</v>
-      </c>
-      <c r="D22" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="C23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2716,7 +2716,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3079,19 +3079,19 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="E2" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>306</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
@@ -3120,7 +3120,7 @@
         <v>126</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>333</v>
@@ -3183,16 +3183,16 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>487</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3277,10 +3277,10 @@
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>304</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="12" spans="1:10" ht="14.25">
       <c r="A12" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>416</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>329</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>417</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="28" spans="1:4" ht="14.25">
       <c r="A28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25">
@@ -4076,7 +4076,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s">
         <v>401</v>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="525">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1581,6 +1581,30 @@
   </si>
   <si>
     <t>简谐振子受迫运动的简单数值计算</t>
+  </si>
+  <si>
+    <t>LstSqr</t>
+  </si>
+  <si>
+    <t>LinFit</t>
+  </si>
+  <si>
+    <t>最小二乘法直线拟合</t>
+  </si>
+  <si>
+    <t>二元函数的极值</t>
+  </si>
+  <si>
+    <t>F2Exm</t>
+  </si>
+  <si>
+    <t>最小二乘法的数值计算</t>
+  </si>
+  <si>
+    <t>CurFit</t>
+  </si>
+  <si>
+    <t>最小二乘法</t>
   </si>
 </sst>
 </file>
@@ -2082,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2166,10 +2190,10 @@
         <v>439</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>356</v>
+        <v>519</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>518</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>495</v>
@@ -2198,10 +2222,10 @@
         <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>273</v>
+        <v>463</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>511</v>
@@ -2230,10 +2254,10 @@
         <v>141</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>427</v>
+        <v>273</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>509</v>
@@ -2262,10 +2286,10 @@
         <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>438</v>
+        <v>275</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>500</v>
@@ -2293,11 +2317,11 @@
       <c r="F7" t="s">
         <v>478</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>148</v>
+      <c r="G7" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>498</v>
@@ -2326,10 +2350,10 @@
         <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>142</v>
+        <v>418</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>467</v>
@@ -2358,10 +2382,10 @@
         <v>97</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>445</v>
@@ -2390,10 +2414,10 @@
         <v>146</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>424</v>
+        <v>144</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>502</v>
@@ -2422,10 +2446,10 @@
         <v>147</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>426</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
         <v>506</v>
@@ -2454,10 +2478,10 @@
         <v>139</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>504</v>
@@ -2486,10 +2510,10 @@
         <v>456</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>153</v>
+        <v>481</v>
       </c>
       <c r="I13" t="s">
         <v>513</v>
@@ -2518,16 +2542,16 @@
         <v>141</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>389</v>
+        <v>152</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>90</v>
+        <v>522</v>
+      </c>
+      <c r="J14" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2549,17 +2573,17 @@
       <c r="F15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>447</v>
+      <c r="G15" t="s">
+        <v>520</v>
+      </c>
+      <c r="H15" t="s">
+        <v>521</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2575,11 +2599,17 @@
       <c r="F16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>90</v>
+      <c r="G16" t="s">
+        <v>524</v>
+      </c>
+      <c r="H16" t="s">
+        <v>517</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2595,11 +2625,17 @@
       <c r="F17" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I17" t="s">
-        <v>489</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>490</v>
+      <c r="G17" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2615,11 +2651,17 @@
       <c r="F18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>491</v>
+      <c r="G18" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I18" t="s">
+        <v>489</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2635,11 +2677,11 @@
       <c r="F19" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I19" t="s">
-        <v>493</v>
-      </c>
-      <c r="J19" t="s">
-        <v>494</v>
+      <c r="I19" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2648,6 +2690,12 @@
       </c>
       <c r="D20" s="2" t="s">
         <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>493</v>
+      </c>
+      <c r="J20" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:10">

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="527">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1605,6 +1605,12 @@
   </si>
   <si>
     <t>最小二乘法</t>
+  </si>
+  <si>
+    <t>MIthm</t>
+  </si>
+  <si>
+    <t>平行轴定理与垂直轴定理</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -3086,8 +3092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3379,46 +3385,46 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="14.25">
       <c r="A15" s="2" t="s">
         <v>457</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25">
+      <c r="C15" t="s">
+        <v>526</v>
+      </c>
+      <c r="D15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C16" t="s">
-        <v>303</v>
+      <c r="C16" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="4" t="s">
         <v>469</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>162</v>
+      <c r="C17" t="s">
+        <v>303</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
@@ -3427,6 +3433,12 @@
       </c>
       <c r="B18" s="2" t="s">
         <v>433</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4">

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
     <sheet name="力学" sheetId="2" r:id="rId2"/>
-    <sheet name="理论力学" sheetId="8" r:id="rId3"/>
-    <sheet name="热学" sheetId="11" r:id="rId4"/>
-    <sheet name="超纲数学" sheetId="9" r:id="rId5"/>
-    <sheet name="电路" sheetId="10" r:id="rId6"/>
-    <sheet name="电磁学" sheetId="12" r:id="rId7"/>
-    <sheet name="统计力学" sheetId="13" r:id="rId8"/>
-    <sheet name="量子力学" sheetId="7" r:id="rId9"/>
-    <sheet name="现代物理" sheetId="16" r:id="rId10"/>
-    <sheet name="数学物理方法" sheetId="14" r:id="rId11"/>
-    <sheet name="不转换" sheetId="4" r:id="rId12"/>
-    <sheet name="相对论" sheetId="15" r:id="rId13"/>
+    <sheet name="计算物理" sheetId="18" r:id="rId3"/>
+    <sheet name="理论力学" sheetId="8" r:id="rId4"/>
+    <sheet name="热学" sheetId="11" r:id="rId5"/>
+    <sheet name="超纲数学" sheetId="9" r:id="rId6"/>
+    <sheet name="电路" sheetId="10" r:id="rId7"/>
+    <sheet name="电磁学" sheetId="12" r:id="rId8"/>
+    <sheet name="统计力学" sheetId="13" r:id="rId9"/>
+    <sheet name="量子力学" sheetId="7" r:id="rId10"/>
+    <sheet name="现代物理" sheetId="16" r:id="rId11"/>
+    <sheet name="数学物理方法" sheetId="14" r:id="rId12"/>
+    <sheet name="不转换" sheetId="4" r:id="rId13"/>
+    <sheet name="相对论" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc442300232" localSheetId="7">统计力学!$A$9</definedName>
+    <definedName name="_Toc442300232" localSheetId="8">统计力学!$A$9</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="537">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1611,6 +1612,36 @@
   </si>
   <si>
     <t>平行轴定理与垂直轴定理</t>
+  </si>
+  <si>
+    <t>麦克斯韦—玻尔兹曼分布的数值模拟</t>
+  </si>
+  <si>
+    <t>MBdisN</t>
+  </si>
+  <si>
+    <t>统计</t>
+  </si>
+  <si>
+    <t>分布函数</t>
+  </si>
+  <si>
+    <t>随机变量的变换</t>
+  </si>
+  <si>
+    <t>RandCV</t>
+  </si>
+  <si>
+    <t>二维随机走动</t>
+  </si>
+  <si>
+    <t>RW2D</t>
+  </si>
+  <si>
+    <t>中心极限定理</t>
+  </si>
+  <si>
+    <t>CLT</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1770,6 +1801,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2112,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2123,7 +2157,7 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="5" max="5" width="18.73046875" customWidth="1"/>
     <col min="7" max="7" width="25.265625" customWidth="1"/>
-    <col min="9" max="9" width="31.1328125" customWidth="1"/>
+    <col min="9" max="9" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2140,7 +2174,7 @@
         <v>270</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>383</v>
+        <v>529</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2169,11 +2203,8 @@
       <c r="H2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>458</v>
+      <c r="I2" s="18" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2202,10 +2233,10 @@
         <v>518</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>496</v>
+        <v>531</v>
+      </c>
+      <c r="J3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2233,12 +2264,6 @@
       <c r="H4" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>508</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
@@ -2265,12 +2290,6 @@
       <c r="H5" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
@@ -2297,12 +2316,6 @@
       <c r="H6" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>501</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
@@ -2329,12 +2342,6 @@
       <c r="H7" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>499</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
@@ -2361,12 +2368,6 @@
       <c r="H8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
@@ -2393,12 +2394,6 @@
       <c r="H9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>444</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
@@ -2425,12 +2420,6 @@
       <c r="H10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -2457,12 +2446,6 @@
       <c r="H11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I11" t="s">
-        <v>506</v>
-      </c>
-      <c r="J11" t="s">
-        <v>507</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -2489,12 +2472,6 @@
       <c r="H12" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>505</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
@@ -2521,12 +2498,6 @@
       <c r="H13" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I13" t="s">
-        <v>513</v>
-      </c>
-      <c r="J13" t="s">
-        <v>514</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
@@ -2553,12 +2524,6 @@
       <c r="H14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="J14" t="s">
-        <v>523</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
@@ -2585,12 +2550,6 @@
       <c r="H15" t="s">
         <v>521</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="C16" s="2" t="s">
@@ -2611,14 +2570,8 @@
       <c r="H16" t="s">
         <v>517</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:8">
       <c r="C17" s="2" t="s">
         <v>112</v>
       </c>
@@ -2637,14 +2590,8 @@
       <c r="H17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:8">
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2663,14 +2610,8 @@
       <c r="H18" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="I18" t="s">
-        <v>489</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:8">
       <c r="C19" s="2" t="s">
         <v>488</v>
       </c>
@@ -2683,28 +2624,22 @@
       <c r="F19" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I20" t="s">
-        <v>493</v>
-      </c>
-      <c r="J20" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="C21" s="2" t="s">
         <v>330</v>
       </c>
@@ -2712,7 +2647,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:8">
       <c r="C22" s="2" t="s">
         <v>450</v>
       </c>
@@ -2720,7 +2655,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:8">
       <c r="C23" t="s">
         <v>462</v>
       </c>
@@ -2728,7 +2663,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:8">
       <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
@@ -2736,7 +2671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:8">
       <c r="C25" s="3" t="s">
         <v>79</v>
       </c>
@@ -2744,7 +2679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:8">
       <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
@@ -2752,7 +2687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:8">
       <c r="C27" s="2" t="s">
         <v>165</v>
       </c>
@@ -2760,7 +2695,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:8">
       <c r="C28" s="2" t="s">
         <v>166</v>
       </c>
@@ -2768,7 +2703,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>482</v>
       </c>
@@ -2800,6 +2735,272 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="30.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>398</v>
+      </c>
+      <c r="B29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B30" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2822,7 +3023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2848,7 +3049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -3064,7 +3265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3092,7 +3293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3533,6 +3734,189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA727655-9C2D-40D4-B0BD-5B356A822265}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="32.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>493</v>
+      </c>
+      <c r="B20" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>527</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:B9"/>
   <sheetViews>
@@ -3583,7 +3967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3610,7 +3994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -3757,7 +4141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3784,7 +4168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -3957,12 +4341,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4067,274 +4451,24 @@
         <v>264</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.25">
+      <c r="A15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B15" t="s">
+        <v>534</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="30.46484375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>473</v>
-      </c>
-      <c r="B7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>376</v>
-      </c>
-      <c r="B14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>360</v>
-      </c>
-      <c r="B21" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>251</v>
-      </c>
-      <c r="B22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>259</v>
-      </c>
-      <c r="B23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>260</v>
-      </c>
-      <c r="B24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>358</v>
-      </c>
-      <c r="B25" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>278</v>
-      </c>
-      <c r="B26" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>276</v>
-      </c>
-      <c r="B27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>366</v>
-      </c>
-      <c r="B28" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>398</v>
-      </c>
-      <c r="B29" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>400</v>
-      </c>
-      <c r="B30" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>402</v>
-      </c>
-      <c r="B31" t="s">
-        <v>403</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="540">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1623,9 +1623,6 @@
     <t>统计</t>
   </si>
   <si>
-    <t>分布函数</t>
-  </si>
-  <si>
     <t>随机变量的变换</t>
   </si>
   <si>
@@ -1642,6 +1639,18 @@
   </si>
   <si>
     <t>CLT</t>
+  </si>
+  <si>
+    <t>RandF</t>
+  </si>
+  <si>
+    <t>随机变量 概率分布函数</t>
+  </si>
+  <si>
+    <t>拉格朗日乘数法</t>
+  </si>
+  <si>
+    <t>LagMul</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1801,9 +1810,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2147,7 +2153,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2157,7 +2163,7 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="5" max="5" width="18.73046875" customWidth="1"/>
     <col min="7" max="7" width="25.265625" customWidth="1"/>
-    <col min="9" max="9" width="14.265625" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2203,8 +2209,11 @@
       <c r="H2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>530</v>
+      <c r="I2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J2" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2233,10 +2242,10 @@
         <v>518</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J3" t="s">
         <v>531</v>
-      </c>
-      <c r="J3" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3998,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4086,6 +4095,14 @@
       </c>
       <c r="B10" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4173,7 +4190,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4343,10 +4360,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4451,20 +4468,28 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" ht="14.25">
+      <c r="A14" t="s">
+        <v>537</v>
+      </c>
+      <c r="B14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="14.25">
+      <c r="A16" t="s">
+        <v>532</v>
+      </c>
+      <c r="B16" t="s">
         <v>533</v>
-      </c>
-      <c r="B15" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="542">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1651,6 +1651,12 @@
   </si>
   <si>
     <t>LagMul</t>
+  </si>
+  <si>
+    <t>分布函数的数值拟合</t>
+  </si>
+  <si>
+    <t>FitPdf</t>
   </si>
 </sst>
 </file>
@@ -3744,10 +3750,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA727655-9C2D-40D4-B0BD-5B356A822265}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3912,11 +3918,19 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>540</v>
+      </c>
+      <c r="B24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>527</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>528</v>
       </c>
     </row>
@@ -4007,7 +4021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
